--- a/Testdata/TC_19.xlsx
+++ b/Testdata/TC_19.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Jx0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE3d12MpuJKr3yLVkLO45sh0z2BZW7K3GRdrfpqk7it0UCLVoWIYRm0XIVT4uQGEawKy0zXP7LapIZnvgLnLr0zXZ20mEUTbrO+U7VqVPnVhX07vXcNy5JxGgY7FXsmlUxSOCGHg3O9yoxP6vajyrvOqh77RL/CEd4TjiADZAK2O41o3uVGeeLXdO8urqqXTVqYXRu1i3LNp8M+mN3Rua4SgPGceCSSirlvV2q4qC2Nx8Qjj3MsZLcq/TGvVqbULcDtAEO8DmJaq2Y0YAw1g045ZQwIRkRzEm7M/iO2phTrz2q2chco2fIVkx9T+EKSEXXOFiWTOicOHXL3qlaO9WGNbHt3a3t3a2t2s5O4/1EMAWiPmZ8TKJL6krCmOP5QopbOw3Ltre2t7aQuREEc2UGcNDQ90bkkjLitYnvs1IWMfUBNl0Ouy5nTAuZOVk90cNVOIjwYjah3Cfl1BgNWsY80LpkkzhoP4yIC/Z7kEqH5GoYabNOFn3gTmY04ssOXpae65iRaLgQRion6qBOGPCmTyJ+vICzJh64AjAcHsUEmXcwM6EOZS580yAmnnOGfZYXKjDRSRhdsAV2ySHEsSnmuAr8EHvgcJwyTt1s0TUGOorCBcwIi7dC39uHWTV4AyOduReAicWyrTC8yLTbxETyVOX5wpnOMU/ga3Q0noVXw8BfjuMpcyM6JV6nlaA38pAISC3djhkP56BFRkKKlqMs4R8E4CoZdYhL59g/8sGIzGnALAUCasY8PKO8HfrxPGCJTitUdAI7mpDrdIfpGA3hcANh9DDoBQlemXkjqygwCq/SNdcZ0gg5cpO5yXGvM1bBHaAlx7fOkScidrlPfagP+bPIUYteMZ4Rwje6hOIgkQr3RcVxWsvDeD6F8JpCjF3KVRkyMz4CPwVfB70cC6pIVf5MLGtX/oAeKRt1A+9uXMJEsFxuLccG3goJwZ78lo+DC6CeUD47bCZ72cBBygJ34td5CCJ34eOlJKdWytNQL3D92CMqIfSCM+miQjd1qHey0RqpDzHuIBwsJ8sF5GVGdzl87FWgUu8yHkEvUHHcMA54tBSZA5ka+jYZFk8DuQD27y1zFpHvx9CCLPfjwG2H3v1X85R1jgPK769hGEcqHd5fRFpPZMaYdYjIMTLp31veLbMnFpWCzwMyDwPq3t/aYGShvfeAjbAkqu4tQVR83RvvQ11XZU/E+r3FIugfodCVWqbJWOhS6aw6PLycvHlHyHTIGY596N04lNjzNPeuklGTXaxi8iR0HPlJBnREZ8ygNXa9ec2F5kG0fzU3nAuCCR3pyRiZebzogFzSDc77ODiPocdI88oqPc2/oj5OIhwwsZ20pVhJxZtBKMlTqtVxVPIaxtIRVPIKgYvMFRyakPkijLA/AMPQfe12ul+CVmSA+UyPoLb5xE2MbGaiqVRRs0Txt8FkkVLbEAGv0+QKUYLEXlQTnmEyGhK7HEBY+m3s02mksmpSyjfx4MCy5jDJv2JzJRvF5AzgIgbV99tkKbrzbKDp0mXthKEcWCRSZzza2qlvW406dDZijOSORwT7RheCmROjF1wSxucgtmuMCKMefFHs7xrvkSmhUASliXQZKi2dl0P7SZ6XqjRB3yKlCIB+45xCGVkHppxMwDklOPKXOaDaaj90AXf743/f/Ob5qxef3X709M0XP/zvP3716p8/u3n2I/i4/evfbj7+pdqmAqMJnvpEKjRp7exYDbitZSQkjGvK1tiLXS5pp6eyI07HSF/s5KDd7bUP+i2ZT1JiIq5KiinujMswzoZjtQm5kDxSM/EEBXEmSX7S4wI3V6IccYe7JEV0nn+XoLLF65efvX755zultcGyXst+/Hi7atff2orBbdhew6WtWL9QAwR4q2ptV+v1HHgFg0aqAKR26nlOw7YeW3W4cqe53EsdeRNolaVnmuBzc0VOkdqqPUpdID9OmNLxJxAiKVuFQm6gXfSLn7z5y9MCSltXU4qzgHKyjRGLmclATn04mhjj4fGo3TUm3bHwk4yXw6nJvwasV0/jqeBUQRBj/1sGFHcoZkYFbkQVIzwzCHZnxhIiMReHBWfbRFULPXDKVS0PojBeqBPJCWTUDcg0m2yU2JBrJE/acy3pZKwNcKXrzd8/3ySgN9LJGtr0/SNPQwWOIuX4Omo//derLz989eLF7fOf33z5g8IMep30WQD8HKIpP0zdHlKerjcrFHQylsa8sL6bqy+aKC5SRyENOHPsR/IOpUcIRG0xm/yNenMoeXJiaS+gr1DQe5h1r7kObOcQmUUC6LnAUG3D7O6ZElQOz+z6n9/+7vbXn99+8vzNh3+6+eiPNx9/8vrl7988+4OKutunz29/+kxn+dVCIHURN1rVBBryfcQ1RDQaonYbX33wCyMIuQEthxHLjPTVB5/mJhOKyuYkmxlaulSRogpr0LywkDNyqqQ6FORSEdUAtEUJa6QIXcTCBXWzRd6viqlE3EnGN3qTasyIEUI39U3YSRGcCd9XTouoknr0jlW365qrtBFbmGKWM/2BH06hyUgY8gFiBVKQ+nqBDCvXO+gPW81+BlFKDCOPRMIN1QdKWkpRUnosGSWulqMAFxo/N/bFm9EabJ2VzpxLY6Z+fDlreiL9bX6qKCBQO44i1RAF+i1/HC+gGU6e6O7my2fLXP97qHrVfEecjXudIh/GOS4UwiJbECRfpibNUmmqx8Q7j2pnD4VpsiHwCk+dYA79XK86rUvoKyNT5J1uFIXRxuSTcRLYADppyChmZvEUI89Udd1edlYJIUl46Ye6+ekdhh3iE17uLdvMpAfh5YNl4ezLivbY0Pe0MctdPVKzZBPkH/SFo/y/7/nK2ZpRBI2VeAAs/QCfXFxHcN8tqY3aihQUN0BYXb+Q79OI8SciE+gvRTlNKaeqQ30iLlzqQ45Pnca2IgDAzM9uFtRMQperP6uEfp/OaclroZXEd3ESsOVioVq4XjlPEaXlkFxDg5mbAZLi9HtQNtQ7SpnZlMNCLk3lxdslo+czXlaxd6aYeGRqVd0pqVe3PGun+piQRtW24X/s1uuWtS1ePvXkkDkouSq5iJkcWPbnTud/ClAn5icdAAA=</t>
+          <t>IB8AAB+LCAAAAAAAAAOlWVlvI8cR/isDPiVAqDkoaSWhNQYvrYlQoiBS0covQXOmKXU0nGGmeyTxzQFsOHAcBEGwDpwTeXIQIJtFYgPObo7/Yqy0m6f8hVQfc5GUV6MsBOx0VX3V1dXVVdVN9M71NDAuScxoFO7W7DWrZpDQi3wanu3WEj6p25u1d1zUvfZIcIhjPCUchA1AhWznmtHd2jnnsx3TvLq6WrtqrEXxmelYlm0+2e8PvXMyxXUaMo5Dj9QylP92VM1FbX+6Tzj2MccKuVvrDXtrbUK9DtD2cYjPSLzWShgNCWPdkFNOCRPImGBO2p3976mFuc7a5pqNzCV6LtlKaOAruZKkoms5mJaM6JS4juVYdWur7qyPbGfH3tqxNtechvVeCswEUR8zPiTxJfUkYcjxdCbh1pazbjv2lrWJzJVCoCt3gIsGgX9ELikjfpsEAavkEVNvYNPjsOpqzrSQWcBqRQ834XGMZ+cjygNSFb4XxcQDRz1o7gNyNYi1/0azPnBH5zTm8w6eV9Z1zEg8mAlvVIO6qBOFvBmQmB/PYFOJD3sODJfHCUHmHcwc1KHMg28aJsR3JzhgRVCJiU6i+ILNsEcO4MCaQsdVGETYh8jilHHq5ZMuMdBhHM1AI0zeigJ/D7Rq4RWMTHMvBBeLaVtRdJFbt4qJZAzIaIA9nWKeii/R0fA8uhqEwXyYjJkX0zHxO61UeiUPiZOn0e2E8WgKVuQkpGgFyhz+wUlbJKMO8egUB4cBOJG5DdBSIqBmwqMJ5e0oSKYhS21aoKITWNGIXGcrzMZoAJsbCqdHYS9M5ZWbV7LKgKPoKptzmSGdUCA3mZdu9zJjUbgDtHT7ljlyR8Qq92gAhaC4FwVqOSqG54TwlSGhOEjkvD1RWtzW/CCZjuF4jeGMXcpZGTJzPoI4hVgHu1wLykVd/o0sa0f+gR0ZG3VD/265lIlgusJcrg28BRKCNQWtAIcXQD2h/Pygma5lBQcpD9wpv8xDcHJnAZ5LcualIg31Qi9IfKISQi+cyBAVtqlNvZONlkh9OOMuwuF8NJ9BAmZ0h8PHbg1K8g7jMRT9mutFScjjucgcyNSib8OwZBzKCXBwb8wkJj9MoNeY7yWh1478+8/mK+8ch5Tf38IoiVU6vD9Eek9kxoR1iMgxMunfG+9VWROLK4lPQzKNQurd39vgZGG9/4CFsPRU3RtB1Pm6t3wAdV2VPXHW7w2LoVGEQldpmiZjkUdlsOrj4Rfw5h1HpkMmOAmgSeNQYs+y3LtIRk12sShTJKHjOEgzoCtaYAY9sOdP1zxoHkSft+ZFU0EwofU8GSKzKC86II90w7M+Ds8S6DGyvLJIz/KvqI+jGIdMLCdrKRZS8WohlOYp1eq4KnkNEhkIKnlFwEXmghwakeksinGwD46hezrsdL8Ercg+5ud6BLUtIF7qZDOHZqiyZanhbxOTRUotQxx4nSYXiFJIrEV127lMTkNilftwLIM2Dug4Vlk1LeWreLBheXOY5l+xuIqNYroHcOOC6vtdMhdteD7QdBmydspQASwSqTs8Wt9yNqyGA52NGCO54iOCA6MLh5kToxdeEsanANsxjgijPnxRHOwY75IxoVAEpYt0GaqMLuLQXprnpSlNsLdMKQtAv3FGoYwsC2acHOCeEhwH84KgWmo/8kDu9sf/vvnN81cvPr/9+OmbLz/47z9+9eqfP7t59iF83P71bzef/FItUwmjER4HRBo0am1tWY11iLOMhIRzTdka+4nHJe30VHbE2RjpG5wctLu99uN+S+aTjJjCVUkxxeVwHiX5cKgWISeSW2qmkaBE3FGan/S4xC2UKFdc1i5JWbrIvwuofPH65eevX/75TrR2WN5r2dvbG3XbeWsr5li2vSSXtWL9Ug0Qwut1a6PuOAXhBRl0pApA5qee7zZsa9uCu7id5XI/C+RVQossrWmEz8wFnCK1VXuUhUBxnDJl4I/giGRsdRQKAx2iX/7kzV+elqS0dzWlrAWMk22MmMxMB1L1wdHIGA6Oj9pdY9QdijjJeQU5pfwbhPXs2XkqBVUYJjj4jgHFHYqZUYMbUc2IJgbB3rkxh5NYOIelYFtFVRM9UOWilY/jKJmpHSkAcuoKySybrESsyDWSJ/25lHRy1gpxZevN379YBdAL6eQNrXu03zKmYRaXkoZKHEUq8PWp/exfr7766NWLF7fPf37z1Y9KGvQ82bMAxDmcpuIwC3tIebreLFDQyVA688L6fqG+aKK4SB1GNOTMtTflHUqPEEBtoU3+j3pTKHlSsfQX0Bco6F3MutdcH2z3AJllAtg5w1Bto/zumRFUDs/9+p/f/u7211/cfvr8zUd/uvn4jzeffPr65e/fPPuDOnW3T5/f/vSZzvKLhUDaIm60qgk05PuIZ4jTaIjabXz9/i+MMOIGtBxGIjPS1+9/VlAmDJXNSa4ZWrrMkLIJS6JFsMAZBVMyG0q4DKIagLYoYY1MQhexaEa9fJL36kKVOHeS8a3eqJ4wYkTQTX0bVlIWzsH3xWmIKqmHjyzHdjRXWSOWMMas4PrHQTSGJiNlyAeIBZES6psBuayc73F/0Gr2cxFlxCD2SSzCUH2gHkubyjS8ChTgQrPnJYF4J1oSW2ah9KuQukz94DJp+iLlrX6eKEmgdhLHqgkK9UP9MJlBA5w+y93Nl0+VhZ73QPWnxS44H/c6ZT6MC1wofmW2IEi+TEeapVJTj4m3HdXCHgjX5EPglZ43wR36LV51V5fQS8amyDXdOI7ilQkn56Ri+9A9QxYxc49nMqaYUnXafr5XKSFNctmHuu3pFUYdEhBe+aE6Re9Hlw/Gwt5XhfbYIPC1M6tdNzK35AqKr/UiUKoa04xjaJvE817l5/U+DS961VbvOra35fnO+uZk/RFed7adCSbe9rhhbzmPNrfELyxSqbh9ChXi5iLubtUmgWaxDM/v2Udw866oTTlYAsVdFDwlD6RO7NkY7dGY8SciRekvRTnNKKeqdX4i7FMfcnzqNjYUAQTM4mRmyeo0v3D1w04U9OmUVryvWmkSKiuBMJjNVG9ZdUOh5h2Qa+h8CxogW49/APVMPfBU0aZOFST5DJ/qGibjyurMFHwIfBFYD0N3fejLHo6WP5PQ4P8wQHZeD1XRCxk9O+eVD+r2doNsEqfuTDyvvg6DOlTjcd3Hk23bsiYNf8MRL9paOVQHSq4qTiJqCmVwr6iOMxd+53b/B4iDDgAgHwAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>0.2499825759175085</v>
+        <v>0.2499825759175076</v>
       </c>
     </row>
     <row r="22">
@@ -758,4 +758,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>36</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCD23AA3-C68A-4A8A-9197-33503C9CF34F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_19.xlsx
+++ b/Testdata/TC_19.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>IB8AAB+LCAAAAAAAAAOlWVlvI8cR/isDPiVAqDkoaSWhNQYvrYlQoiBS0covQXOmKXU0nGGmeyTxzQFsOHAcBEGwDpwTeXIQIJtFYgPObo7/Yqy0m6f8hVQfc5GUV6MsBOx0VX3V1dXVVdVN9M71NDAuScxoFO7W7DWrZpDQi3wanu3WEj6p25u1d1zUvfZIcIhjPCUchA1AhWznmtHd2jnnsx3TvLq6WrtqrEXxmelYlm0+2e8PvXMyxXUaMo5Dj9QylP92VM1FbX+6Tzj2MccKuVvrDXtrbUK9DtD2cYjPSLzWShgNCWPdkFNOCRPImGBO2p3976mFuc7a5pqNzCV6LtlKaOAruZKkoms5mJaM6JS4juVYdWur7qyPbGfH3tqxNtechvVeCswEUR8zPiTxJfUkYcjxdCbh1pazbjv2lrWJzJVCoCt3gIsGgX9ELikjfpsEAavkEVNvYNPjsOpqzrSQWcBqRQ834XGMZ+cjygNSFb4XxcQDRz1o7gNyNYi1/0azPnBH5zTm8w6eV9Z1zEg8mAlvVIO6qBOFvBmQmB/PYFOJD3sODJfHCUHmHcwc1KHMg28aJsR3JzhgRVCJiU6i+ILNsEcO4MCaQsdVGETYh8jilHHq5ZMuMdBhHM1AI0zeigJ/D7Rq4RWMTHMvBBeLaVtRdJFbt4qJZAzIaIA9nWKeii/R0fA8uhqEwXyYjJkX0zHxO61UeiUPiZOn0e2E8WgKVuQkpGgFyhz+wUlbJKMO8egUB4cBOJG5DdBSIqBmwqMJ5e0oSKYhS21aoKITWNGIXGcrzMZoAJsbCqdHYS9M5ZWbV7LKgKPoKptzmSGdUCA3mZdu9zJjUbgDtHT7ljlyR8Qq92gAhaC4FwVqOSqG54TwlSGhOEjkvD1RWtzW/CCZjuF4jeGMXcpZGTJzPoI4hVgHu1wLykVd/o0sa0f+gR0ZG3VD/265lIlgusJcrg28BRKCNQWtAIcXQD2h/Pygma5lBQcpD9wpv8xDcHJnAZ5LcualIg31Qi9IfKISQi+cyBAVtqlNvZONlkh9OOMuwuF8NJ9BAmZ0h8PHbg1K8g7jMRT9mutFScjjucgcyNSib8OwZBzKCXBwb8wkJj9MoNeY7yWh1478+8/mK+8ch5Tf38IoiVU6vD9Eek9kxoR1iMgxMunfG+9VWROLK4lPQzKNQurd39vgZGG9/4CFsPRU3RtB1Pm6t3wAdV2VPXHW7w2LoVGEQldpmiZjkUdlsOrj4Rfw5h1HpkMmOAmgSeNQYs+y3LtIRk12sShTJKHjOEgzoCtaYAY9sOdP1zxoHkSft+ZFU0EwofU8GSKzKC86II90w7M+Ds8S6DGyvLJIz/KvqI+jGIdMLCdrKRZS8WohlOYp1eq4KnkNEhkIKnlFwEXmghwakeksinGwD46hezrsdL8Ercg+5ud6BLUtIF7qZDOHZqiyZanhbxOTRUotQxx4nSYXiFJIrEV127lMTkNilftwLIM2Dug4Vlk1LeWreLBheXOY5l+xuIqNYroHcOOC6vtdMhdteD7QdBmydspQASwSqTs8Wt9yNqyGA52NGCO54iOCA6MLh5kToxdeEsanANsxjgijPnxRHOwY75IxoVAEpYt0GaqMLuLQXprnpSlNsLdMKQtAv3FGoYwsC2acHOCeEhwH84KgWmo/8kDu9sf/vvnN81cvPr/9+OmbLz/47z9+9eqfP7t59iF83P71bzef/FItUwmjER4HRBo0am1tWY11iLOMhIRzTdka+4nHJe30VHbE2RjpG5wctLu99uN+S+aTjJjCVUkxxeVwHiX5cKgWISeSW2qmkaBE3FGan/S4xC2UKFdc1i5JWbrIvwuofPH65eevX/75TrR2WN5r2dvbG3XbeWsr5li2vSSXtWL9Ug0Qwut1a6PuOAXhBRl0pApA5qee7zZsa9uCu7id5XI/C+RVQossrWmEz8wFnCK1VXuUhUBxnDJl4I/giGRsdRQKAx2iX/7kzV+elqS0dzWlrAWMk22MmMxMB1L1wdHIGA6Oj9pdY9QdijjJeQU5pfwbhPXs2XkqBVUYJjj4jgHFHYqZUYMbUc2IJgbB3rkxh5NYOIelYFtFVRM9UOWilY/jKJmpHSkAcuoKySybrESsyDWSJ/25lHRy1gpxZevN379YBdAL6eQNrXu03zKmYRaXkoZKHEUq8PWp/exfr7766NWLF7fPf37z1Y9KGvQ82bMAxDmcpuIwC3tIebreLFDQyVA688L6fqG+aKK4SB1GNOTMtTflHUqPEEBtoU3+j3pTKHlSsfQX0Bco6F3MutdcH2z3AJllAtg5w1Bto/zumRFUDs/9+p/f/u7211/cfvr8zUd/uvn4jzeffPr65e/fPPuDOnW3T5/f/vSZzvKLhUDaIm60qgk05PuIZ4jTaIjabXz9/i+MMOIGtBxGIjPS1+9/VlAmDJXNSa4ZWrrMkLIJS6JFsMAZBVMyG0q4DKIagLYoYY1MQhexaEa9fJL36kKVOHeS8a3eqJ4wYkTQTX0bVlIWzsH3xWmIKqmHjyzHdjRXWSOWMMas4PrHQTSGJiNlyAeIBZES6psBuayc73F/0Gr2cxFlxCD2SSzCUH2gHkubyjS8ChTgQrPnJYF4J1oSW2ah9KuQukz94DJp+iLlrX6eKEmgdhLHqgkK9UP9MJlBA5w+y93Nl0+VhZ73QPWnxS44H/c6ZT6MC1wofmW2IEi+TEeapVJTj4m3HdXCHgjX5EPglZ43wR36LV51V5fQS8amyDXdOI7ilQkn56Ri+9A9QxYxc49nMqaYUnXafr5XKSFNctmHuu3pFUYdEhBe+aE6Re9Hlw/Gwt5XhfbYIPC1M6tdNzK35AqKr/UiUKoa04xjaJvE817l5/U+DS961VbvOra35fnO+uZk/RFed7adCSbe9rhhbzmPNrfELyxSqbh9ChXi5iLubtUmgWaxDM/v2Udw866oTTlYAsVdFDwlD6RO7NkY7dGY8SciRekvRTnNKKeqdX4i7FMfcnzqNjYUAQTM4mRmyeo0v3D1w04U9OmUVryvWmkSKiuBMJjNVG9ZdUOh5h2Qa+h8CxogW49/APVMPfBU0aZOFST5DJ/qGibjyurMFHwIfBFYD0N3fejLHo6WP5PQ4P8wQHZeD1XRCxk9O+eVD+r2doNsEqfuTDyvvg6DOlTjcd3Hk23bsiYNf8MRL9paOVQHSq4qTiJqCmVwr6iOMxd+53b/B4iDDgAgHwAA</t>
+          <t>Jx0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE3d12MpuJKr3yLVkLO45sh0z2BZW7K3GRdrfpqk7it0UCLVoWIYRm0XIVT4uQGEawKy0zXP7LapIZnvgLnLr0zXZ20mEUTbrO+U7VqVPnVhX07vXcNy5JxGgY7FXsmlUxSOCGHg3O9yoxP6vajyrvOqh77RL/CEd4TjiADZAK2O41o3uVGeeLXdO8urqqXTVqYXRu1i3LNp8M+mN3Rua4SgPGceCSSirlvV2q4qC2Nx8Qjj3MsZLcq/TGvVqbULcDtAEO8DmJaq2Y0YAw1g045ZQwIRkRzEm7M/iO2phTrz2q2chco2fIVkx9T+EKSEXXOFiWTOicOHXL3qlaO9WGNbHt3a3t3a2t2s5O4/1EMAWiPmZ8TKJL6krCmOP5QopbOw3Ltre2t7aQuREEc2UGcNDQ90bkkjLitYnvs1IWMfUBNl0Ouy5nTAuZOVk90cNVOIjwYjah3Cfl1BgNWsY80LpkkzhoP4yIC/Z7kEqH5GoYabNOFn3gTmY04ssOXpae65iRaLgQRion6qBOGPCmTyJ+vICzJh64AjAcHsUEmXcwM6EOZS580yAmnnOGfZYXKjDRSRhdsAV2ySHEsSnmuAr8EHvgcJwyTt1s0TUGOorCBcwIi7dC39uHWTV4AyOduReAicWyrTC8yLTbxETyVOX5wpnOMU/ga3Q0noVXw8BfjuMpcyM6JV6nlaA38pAISC3djhkP56BFRkKKlqMs4R8E4CoZdYhL59g/8sGIzGnALAUCasY8PKO8HfrxPGCJTitUdAI7mpDrdIfpGA3hcANh9DDoBQlemXkjqygwCq/SNdcZ0gg5cpO5yXGvM1bBHaAlx7fOkScidrlPfagP+bPIUYteMZ4Rwje6hOIgkQr3RcVxWsvDeD6F8JpCjF3KVRkyMz4CPwVfB70cC6pIVf5MLGtX/oAeKRt1A+9uXMJEsFxuLccG3goJwZ78lo+DC6CeUD47bCZ72cBBygJ34td5CCJ34eOlJKdWytNQL3D92CMqIfSCM+miQjd1qHey0RqpDzHuIBwsJ8sF5GVGdzl87FWgUu8yHkEvUHHcMA54tBSZA5ka+jYZFk8DuQD27y1zFpHvx9CCLPfjwG2H3v1X85R1jgPK769hGEcqHd5fRFpPZMaYdYjIMTLp31veLbMnFpWCzwMyDwPq3t/aYGShvfeAjbAkqu4tQVR83RvvQ11XZU/E+r3FIugfodCVWqbJWOhS6aw6PLycvHlHyHTIGY596N04lNjzNPeuklGTXaxi8iR0HPlJBnREZ8ygNXa9ec2F5kG0fzU3nAuCCR3pyRiZebzogFzSDc77ODiPocdI88oqPc2/oj5OIhwwsZ20pVhJxZtBKMlTqtVxVPIaxtIRVPIKgYvMFRyakPkijLA/AMPQfe12ul+CVmSA+UyPoLb5xE2MbGaiqVRRs0Txt8FkkVLbEAGv0+QKUYLEXlQTnmEyGhK7HEBY+m3s02mksmpSyjfx4MCy5jDJv2JzJRvF5AzgIgbV99tkKbrzbKDp0mXthKEcWCRSZzza2qlvW406dDZijOSORwT7RheCmROjF1wSxucgtmuMCKMefFHs7xrvkSmhUASliXQZKi2dl0P7SZ6XqjRB3yKlCIB+45xCGVkHppxMwDklOPKXOaDaaj90AXf743/f/Ob5qxef3X709M0XP/zvP3716p8/u3n2I/i4/evfbj7+pdqmAqMJnvpEKjRp7exYDbitZSQkjGvK1tiLXS5pp6eyI07HSF/s5KDd7bUP+i2ZT1JiIq5KiinujMswzoZjtQm5kDxSM/EEBXEmSX7S4wI3V6IccYe7JEV0nn+XoLLF65efvX755zultcGyXst+/Hi7atff2orBbdhew6WtWL9QAwR4q2ptV+v1HHgFg0aqAKR26nlOw7YeW3W4cqe53EsdeRNolaVnmuBzc0VOkdqqPUpdID9OmNLxJxAiKVuFQm6gXfSLn7z5y9MCSltXU4qzgHKyjRGLmclATn04mhjj4fGo3TUm3bHwk4yXw6nJvwasV0/jqeBUQRBj/1sGFHcoZkYFbkQVIzwzCHZnxhIiMReHBWfbRFULPXDKVS0PojBeqBPJCWTUDcg0m2yU2JBrJE/acy3pZKwNcKXrzd8/3ySgN9LJGtr0/SNPQwWOIuX4Omo//derLz989eLF7fOf33z5g8IMep30WQD8HKIpP0zdHlKerjcrFHQylsa8sL6bqy+aKC5SRyENOHPsR/IOpUcIRG0xm/yNenMoeXJiaS+gr1DQe5h1r7kObOcQmUUC6LnAUG3D7O6ZElQOz+z6n9/+7vbXn99+8vzNh3+6+eiPNx9/8vrl7988+4OKutunz29/+kxn+dVCIHURN1rVBBryfcQ1RDQaonYbX33wCyMIuQEthxHLjPTVB5/mJhOKyuYkmxlaulSRogpr0LywkDNyqqQ6FORSEdUAtEUJa6QIXcTCBXWzRd6viqlE3EnGN3qTasyIEUI39U3YSRGcCd9XTouoknr0jlW365qrtBFbmGKWM/2BH06hyUgY8gFiBVKQ+nqBDCvXO+gPW81+BlFKDCOPRMIN1QdKWkpRUnosGSWulqMAFxo/N/bFm9EabJ2VzpxLY6Z+fDlreiL9bX6qKCBQO44i1RAF+i1/HC+gGU6e6O7my2fLXP97qHrVfEecjXudIh/GOS4UwiJbECRfpibNUmmqx8Q7j2pnD4VpsiHwCk+dYA79XK86rUvoKyNT5J1uFIXRxuSTcRLYADppyChmZvEUI89Udd1edlYJIUl46Ye6+ekdhh3iE17uLdvMpAfh5YNl4ezLivbY0Pe0MctdPVKzZBPkH/SFo/y/7/nK2ZpRBI2VeAAs/QCfXFxHcN8tqY3aihQUN0BYXb+Q79OI8SciE+gvRTlNKaeqQ30iLlzqQ45Pnca2IgDAzM9uFtRMQperP6uEfp/OaclroZXEd3ESsOVioVq4XjlPEaXlkFxDg5mbAZLi9HtQNtQ7SpnZlMNCLk3lxdslo+czXlaxd6aYeGRqVd0pqVe3PGun+piQRtW24X/s1uuWtS1ePvXkkDkouSq5iJkcWPbnTud/ClAn5icdAAA=</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>0.2499825759175076</v>
+        <v>0.2499825759175085</v>
       </c>
     </row>
     <row r="22">
@@ -758,37 +758,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCD23AA3-C68A-4A8A-9197-33503C9CF34F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>